--- a/medicine/Soins infirmiers et profession infirmière/Clinique_Ambroise-Paré/Clinique_Ambroise-Paré.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Clinique_Ambroise-Paré/Clinique_Ambroise-Paré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clinique_Ambroise-Par%C3%A9</t>
+          <t>Clinique_Ambroise-Paré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La clinique Ambroise-Paré est un hôpital de Conakry en république de Guinée[1].
+La clinique Ambroise-Paré est un hôpital de Conakry en république de Guinée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clinique_Ambroise-Par%C3%A9</t>
+          <t>Clinique_Ambroise-Paré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital porte le nom d'Ambroise Paré, le père de la chirurgie française.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clinique_Ambroise-Par%C3%A9</t>
+          <t>Clinique_Ambroise-Paré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambroise-Paré dispose d'une ambulance et est équipé pour la chirurgie[2]. Il est situé sur la Corniche Nord à côté de l'USAID, au sud-ouest du jardin botanique de Conakry.
-C'est une propriété privée, offrant des soins de qualité à l'images de hôpitaux publics Ignace-Deen et Donka[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambroise-Paré dispose d'une ambulance et est équipé pour la chirurgie. Il est situé sur la Corniche Nord à côté de l'USAID, au sud-ouest du jardin botanique de Conakry.
+C'est une propriété privée, offrant des soins de qualité à l'images de hôpitaux publics Ignace-Deen et Donka.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clinique_Ambroise-Par%C3%A9</t>
+          <t>Clinique_Ambroise-Paré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En septembre 2009, lorsqu'un rassemblement dans un stade de la ville en protestation contre la junte militaire a été violemment dispersé, des dizaines de personnes ont été tuées par les forces de sécurité. Les anciens premiers ministres Cellou Dalein Diallo et Sidya Touré ont été blessés et conduits à la clinique Ambroise Paré. Cependant, les militaires les ont retirés de la clinique et les ont emmenés au camp Alpha Yaya Diallo, siège de la junte[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2009, lorsqu'un rassemblement dans un stade de la ville en protestation contre la junte militaire a été violemment dispersé, des dizaines de personnes ont été tuées par les forces de sécurité. Les anciens premiers ministres Cellou Dalein Diallo et Sidya Touré ont été blessés et conduits à la clinique Ambroise Paré. Cependant, les militaires les ont retirés de la clinique et les ont emmenés au camp Alpha Yaya Diallo, siège de la junte.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clinique_Ambroise-Par%C3%A9</t>
+          <t>Clinique_Ambroise-Paré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Souleymane Touré (1980- ), médecin et homme politique guinéen.</t>
         </is>
